--- a/example_2_folder/example_2_018/main_results.xlsx
+++ b/example_2_folder/example_2_018/main_results.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\example_2_018\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED756E4-5A48-48D7-B22D-79BACEF758D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -151,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,13 +208,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -233,7 +260,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -267,6 +294,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -301,9 +329,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,64 +505,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:68">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="W1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Y1" t="s">
         <v>9</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AE1" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AG1" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AK1" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AQ1" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AS1" t="s">
         <v>20</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BR1" t="s">
         <v>42</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BV1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:68">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -552,26 +583,11 @@
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>1</v>
-      </c>
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
-        <v>2</v>
-      </c>
       <c r="S2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
         <v>1</v>
@@ -591,17 +607,17 @@
       <c r="AC2" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" t="s">
-        <v>2</v>
-      </c>
       <c r="AE2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="s">
         <v>1</v>
       </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
       <c r="AI2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AK2" t="s">
         <v>1</v>
@@ -612,94 +628,109 @@
       <c r="AM2" t="s">
         <v>3</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV2" t="s">
         <v>21</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AW2" t="s">
         <v>22</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AX2" t="s">
         <v>23</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AY2" t="s">
         <v>24</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AZ2" t="s">
         <v>25</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="BA2" t="s">
         <v>26</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BB2" t="s">
         <v>27</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="BC2" t="s">
         <v>28</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="BD2" t="s">
         <v>29</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="BE2" t="s">
         <v>30</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="BF2" t="s">
         <v>31</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="BG2" t="s">
         <v>32</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BH2" t="s">
         <v>33</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BI2" t="s">
         <v>34</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BJ2" t="s">
         <v>35</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BK2" t="s">
         <v>36</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BL2" t="s">
         <v>37</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BM2" t="s">
         <v>38</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BN2" t="s">
         <v>39</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BO2" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BP2" t="s">
         <v>41</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BR2" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BS2" t="s">
         <v>2</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BT2" t="s">
         <v>3</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BV2" t="s">
         <v>1</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BW2" t="s">
         <v>2</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BX2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:68">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1728.233245349986</v>
       </c>
       <c r="B3">
-        <v>1717.826215001364</v>
+        <v>1717.8262150013641</v>
       </c>
       <c r="C3">
         <v>1725.685753392738</v>
@@ -714,156 +745,180 @@
         <v>1477.773018318135</v>
       </c>
       <c r="I3">
+        <f>A3-E3</f>
+        <v>242.34251422257898</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:K3" si="0">B3-F3</f>
+        <v>252.70254880393804</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>247.91273507460301</v>
+      </c>
+      <c r="M3">
+        <f>I3/A3</f>
+        <v>0.14022558290359818</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:O3" si="1">J3/B3</f>
+        <v>0.14710600327154594</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.14366041707605273</v>
+      </c>
+      <c r="Q3">
         <v>2201.803857509989</v>
       </c>
-      <c r="K3">
-        <v>6531.856229000902</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0.5618837555426403</v>
-      </c>
-      <c r="Q3">
+      <c r="S3">
+        <v>6531.8562290009022</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.56188375554264025</v>
+      </c>
+      <c r="Y3">
         <v>0.2898930200941402</v>
       </c>
-      <c r="R3">
-        <v>0.3082648921682354</v>
-      </c>
-      <c r="S3">
-        <v>0.3011534940170889</v>
-      </c>
-      <c r="U3">
-        <v>24116150.92710008</v>
-      </c>
-      <c r="W3">
-        <v>55045096.43774974</v>
-      </c>
-      <c r="Y3">
+      <c r="Z3">
+        <v>0.30826489216823538</v>
+      </c>
+      <c r="AA3">
+        <v>0.30115349401708891</v>
+      </c>
+      <c r="AC3">
+        <v>24116150.927100081</v>
+      </c>
+      <c r="AE3">
+        <v>55045096.437749743</v>
+      </c>
+      <c r="AG3">
         <v>5202283.08800798</v>
       </c>
-      <c r="Z3">
-        <v>5169282.771973486</v>
-      </c>
-      <c r="AA3">
-        <v>5195194.650050255</v>
-      </c>
-      <c r="AC3">
-        <v>1508105.555767303</v>
-      </c>
-      <c r="AD3">
+      <c r="AH3">
+        <v>5169282.7719734861</v>
+      </c>
+      <c r="AI3">
+        <v>5195194.6500502545</v>
+      </c>
+      <c r="AK3">
+        <v>1508105.5557673031</v>
+      </c>
+      <c r="AL3">
         <v>1593508.396289523</v>
       </c>
-      <c r="AE3">
-        <v>1564551.020961522</v>
-      </c>
-      <c r="AG3">
-        <v>5168.508393521503</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="AM3">
+        <v>1564551.0209615219</v>
+      </c>
+      <c r="AO3">
+        <v>5168.5083935215034</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>16</v>
       </c>
-      <c r="AK3">
-        <v>811887.1570813748</v>
-      </c>
-      <c r="AL3">
-        <v>307189.5606806653</v>
-      </c>
-      <c r="AM3">
+      <c r="AS3">
+        <v>811887.15708137478</v>
+      </c>
+      <c r="AT3">
+        <v>307189.56068066531</v>
+      </c>
+      <c r="AU3">
         <v>115435.3503292942</v>
       </c>
-      <c r="AN3">
+      <c r="AV3">
         <v>17404.37801232838</v>
       </c>
-      <c r="AO3">
-        <v>286384.7723095241</v>
-      </c>
-      <c r="AP3">
+      <c r="AW3">
+        <v>286384.77230952412</v>
+      </c>
+      <c r="AX3">
         <v>10285.8533121659</v>
       </c>
-      <c r="AQ3">
-        <v>740238.6353454798</v>
-      </c>
-      <c r="AR3">
-        <v>232519.4149106379</v>
-      </c>
-      <c r="AS3">
-        <v>608548.1229612909</v>
-      </c>
-      <c r="AT3">
-        <v>397937.7579718953</v>
-      </c>
-      <c r="AU3">
-        <v>96013.21244744316</v>
-      </c>
-      <c r="AV3">
-        <v>47837.91367655996</v>
-      </c>
-      <c r="AW3">
-        <v>229665.704094162</v>
-      </c>
-      <c r="AX3">
-        <v>35448.66399593188</v>
-      </c>
       <c r="AY3">
-        <v>507835.9473005321</v>
+        <v>740238.63534547982</v>
       </c>
       <c r="AZ3">
-        <v>285985.2172597269</v>
+        <v>232519.41491063789</v>
       </c>
       <c r="BA3">
-        <v>554422.0322844704</v>
+        <v>608548.12296129088</v>
       </c>
       <c r="BB3">
+        <v>397937.75797189528</v>
+      </c>
+      <c r="BC3">
+        <v>96013.212447443162</v>
+      </c>
+      <c r="BD3">
+        <v>47837.913676559961</v>
+      </c>
+      <c r="BE3">
+        <v>229665.70409416201</v>
+      </c>
+      <c r="BF3">
+        <v>35448.663995931878</v>
+      </c>
+      <c r="BG3">
+        <v>507835.94730053208</v>
+      </c>
+      <c r="BH3">
+        <v>285985.21725972689</v>
+      </c>
+      <c r="BI3">
+        <v>554422.03228447039</v>
+      </c>
+      <c r="BJ3">
         <v>306487.2133652498</v>
       </c>
-      <c r="BC3">
-        <v>694077.8560903916</v>
-      </c>
-      <c r="BD3">
-        <v>236287.3963064482</v>
-      </c>
-      <c r="BE3">
+      <c r="BK3">
+        <v>694077.85609039164</v>
+      </c>
+      <c r="BL3">
+        <v>236287.39630644821</v>
+      </c>
+      <c r="BM3">
         <v>125845.2055514902</v>
       </c>
-      <c r="BF3">
+      <c r="BN3">
         <v>164150.4303397125</v>
       </c>
-      <c r="BG3">
+      <c r="BO3">
         <v>397956.3069071155</v>
       </c>
-      <c r="BH3">
+      <c r="BP3">
         <v>22199.14259491237</v>
       </c>
-      <c r="BJ3">
+      <c r="BR3">
         <v>2069250</v>
       </c>
-      <c r="BK3">
-        <v>0</v>
-      </c>
-      <c r="BL3">
-        <v>0</v>
-      </c>
-      <c r="BN3">
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
         <v>1065588.179843402</v>
       </c>
-      <c r="BO3">
+      <c r="BW3">
         <v>1032587.863808896</v>
       </c>
-      <c r="BP3">
-        <v>1058499.741885672</v>
+      <c r="BX3">
+        <v>1058499.7418856721</v>
       </c>
     </row>
-    <row r="4" spans="1:68">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2209.915791002061</v>
+        <v>2209.9157910020608</v>
       </c>
       <c r="B4">
-        <v>2174.22205505452</v>
+        <v>2174.2220550545198</v>
       </c>
       <c r="C4">
-        <v>2200.944021084509</v>
+        <v>2200.9440210845091</v>
       </c>
       <c r="E4">
         <v>1948.6590283485</v>
@@ -875,148 +930,172 @@
         <v>1947.71113973356</v>
       </c>
       <c r="I4">
-        <v>2503.955409587573</v>
+        <f t="shared" ref="I4:I26" si="2">A4-E4</f>
+        <v>261.25676265356083</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J26" si="3">B4-F4</f>
+        <v>266.88064609682283</v>
       </c>
       <c r="K4">
-        <v>7025.263878647864</v>
+        <f t="shared" ref="K4:K26" si="4">C4-G4</f>
+        <v>253.23288135094913</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" ref="M4:M26" si="5">I4/A4</f>
+        <v>0.11822023432625772</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N26" si="6">J4/B4</f>
+        <v>0.12274764920004026</v>
       </c>
       <c r="O4">
-        <v>0.5159047220989845</v>
+        <f t="shared" ref="O4:O26" si="7">K4/C4</f>
+        <v>0.11505648436536306</v>
       </c>
       <c r="Q4">
-        <v>0.2206535305561376</v>
-      </c>
-      <c r="R4">
+        <v>2503.9554095875728</v>
+      </c>
+      <c r="S4">
+        <v>7025.2638786478637</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.51590472209898453</v>
+      </c>
+      <c r="Y4">
+        <v>0.22065353055613759</v>
+      </c>
+      <c r="Z4">
         <v>0.2320408817066606</v>
       </c>
-      <c r="S4">
-        <v>0.2176243865849604</v>
-      </c>
-      <c r="U4">
-        <v>30303824.74640119</v>
-      </c>
-      <c r="W4">
-        <v>62598885.23968934</v>
-      </c>
-      <c r="Y4">
-        <v>6337106.653708771</v>
-      </c>
-      <c r="Z4">
-        <v>6229791.828671893</v>
-      </c>
       <c r="AA4">
-        <v>6314055.526609778</v>
+        <v>0.21762438658496039</v>
       </c>
       <c r="AC4">
+        <v>30303824.746401191</v>
+      </c>
+      <c r="AE4">
+        <v>62598885.239689343</v>
+      </c>
+      <c r="AG4">
+        <v>6337106.6537087709</v>
+      </c>
+      <c r="AH4">
+        <v>6229791.8286718931</v>
+      </c>
+      <c r="AI4">
+        <v>6314055.5266097784</v>
+      </c>
+      <c r="AK4">
         <v>1398304.956651631</v>
       </c>
-      <c r="AD4">
+      <c r="AL4">
         <v>1445566.388773975</v>
       </c>
-      <c r="AE4">
+      <c r="AM4">
         <v>1374092.460841832</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="s">
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>17</v>
       </c>
-      <c r="AK4">
-        <v>359307.5999999999</v>
-      </c>
-      <c r="AL4">
+      <c r="AS4">
+        <v>359307.59999999992</v>
+      </c>
+      <c r="AT4">
         <v>517052.4</v>
       </c>
-      <c r="AM4">
+      <c r="AU4">
         <v>683560.8</v>
       </c>
-      <c r="AN4">
-        <v>306726.0000000001</v>
-      </c>
-      <c r="AO4">
+      <c r="AV4">
+        <v>306726.00000000012</v>
+      </c>
+      <c r="AW4">
         <v>376834.8</v>
       </c>
-      <c r="AP4">
+      <c r="AX4">
         <v>411889.2</v>
       </c>
-      <c r="AQ4">
-        <v>534579.5999999999</v>
-      </c>
-      <c r="AR4">
-        <v>394362.0000000001</v>
-      </c>
-      <c r="AS4">
-        <v>587161.2000000001</v>
-      </c>
-      <c r="AT4">
-        <v>569634.0000000001</v>
-      </c>
-      <c r="AU4">
+      <c r="AY4">
+        <v>534579.59999999986</v>
+      </c>
+      <c r="AZ4">
+        <v>394362.00000000012</v>
+      </c>
+      <c r="BA4">
+        <v>587161.20000000007</v>
+      </c>
+      <c r="BB4">
+        <v>569634.00000000012</v>
+      </c>
+      <c r="BC4">
         <v>219090</v>
       </c>
-      <c r="AV4">
+      <c r="BD4">
         <v>464470.8</v>
       </c>
-      <c r="AW4">
+      <c r="BE4">
         <v>289198.8</v>
       </c>
-      <c r="AX4">
+      <c r="BF4">
         <v>245380.8</v>
       </c>
-      <c r="AY4">
-        <v>262907.9999999999</v>
-      </c>
-      <c r="AZ4">
-        <v>543343.1999999998</v>
-      </c>
-      <c r="BA4">
-        <v>736142.3999999999</v>
-      </c>
-      <c r="BB4">
+      <c r="BG4">
+        <v>262907.99999999988</v>
+      </c>
+      <c r="BH4">
+        <v>543343.19999999984</v>
+      </c>
+      <c r="BI4">
+        <v>736142.39999999991</v>
+      </c>
+      <c r="BJ4">
         <v>105163.2</v>
       </c>
-      <c r="BC4">
-        <v>569634.0000000001</v>
-      </c>
-      <c r="BD4">
-        <v>972759.6000000002</v>
-      </c>
-      <c r="BE4">
-        <v>736142.3999999999</v>
-      </c>
-      <c r="BF4">
-        <v>841305.6000000002</v>
-      </c>
-      <c r="BG4">
+      <c r="BK4">
+        <v>569634.00000000012</v>
+      </c>
+      <c r="BL4">
+        <v>972759.60000000021</v>
+      </c>
+      <c r="BM4">
+        <v>736142.39999999991</v>
+      </c>
+      <c r="BN4">
+        <v>841305.60000000021</v>
+      </c>
+      <c r="BO4">
         <v>499525.2</v>
       </c>
-      <c r="BH4">
+      <c r="BP4">
         <v>438180</v>
       </c>
-      <c r="BJ4">
+      <c r="BR4">
         <v>1498750</v>
       </c>
-      <c r="BK4">
-        <v>0</v>
-      </c>
-      <c r="BL4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>3465221.634899875</v>
-      </c>
-      <c r="BO4">
-        <v>3357906.809862999</v>
-      </c>
-      <c r="BP4">
-        <v>3442170.507800888</v>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>3465221.6348998751</v>
+      </c>
+      <c r="BW4">
+        <v>3357906.8098629988</v>
+      </c>
+      <c r="BX4">
+        <v>3442170.5078008878</v>
       </c>
     </row>
-    <row r="5" spans="1:68">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1180.575229685463</v>
       </c>
@@ -1027,159 +1106,183 @@
         <v>1179.003204918931</v>
       </c>
       <c r="E5">
-        <v>986.6090146065545</v>
+        <v>986.60901460655452</v>
       </c>
       <c r="F5">
-        <v>973.6540997235915</v>
+        <v>973.65409972359146</v>
       </c>
       <c r="G5">
-        <v>985.5503912996658</v>
+        <v>985.55039129966576</v>
       </c>
       <c r="I5">
+        <f t="shared" si="2"/>
+        <v>193.96621507890848</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>200.6669083940875</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>193.45281361926527</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="5"/>
+        <v>0.16429805589821353</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="6"/>
+        <v>0.17087909269011275</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="7"/>
+        <v>0.16408166899984569</v>
+      </c>
+      <c r="Q5">
         <v>2295.762614109557</v>
       </c>
-      <c r="K5">
-        <v>6630.834707503839</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.5395122383611478</v>
-      </c>
-      <c r="Q5">
-        <v>0.3117828911643045</v>
-      </c>
-      <c r="R5">
-        <v>0.3252027794143184</v>
-      </c>
       <c r="S5">
-        <v>0.3140051535712551</v>
+        <v>6630.8347075038391</v>
       </c>
       <c r="U5">
-        <v>26429264.68563673</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>57394065.35273891</v>
+        <v>0.53951223836114781</v>
       </c>
       <c r="Y5">
-        <v>3380260.906938159</v>
+        <v>0.31178289116430452</v>
       </c>
       <c r="Z5">
-        <v>3361457.308058105</v>
+        <v>0.32520277941431841</v>
       </c>
       <c r="AA5">
-        <v>3376221.910950851</v>
+        <v>0.31400515357125508</v>
       </c>
       <c r="AC5">
+        <v>26429264.685636729</v>
+      </c>
+      <c r="AE5">
+        <v>57394065.352738909</v>
+      </c>
+      <c r="AG5">
+        <v>3380260.9069381589</v>
+      </c>
+      <c r="AH5">
+        <v>3361457.3080581049</v>
+      </c>
+      <c r="AI5">
+        <v>3376221.9109508512</v>
+      </c>
+      <c r="AK5">
         <v>1053907.518454853</v>
       </c>
-      <c r="AD5">
-        <v>1093155.259463068</v>
-      </c>
-      <c r="AE5">
+      <c r="AL5">
+        <v>1093155.2594630681</v>
+      </c>
+      <c r="AM5">
         <v>1060151.079638758</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="s">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>18</v>
       </c>
-      <c r="AK5">
-        <v>428027.151083153</v>
-      </c>
-      <c r="AL5">
-        <v>371267.0581281513</v>
-      </c>
-      <c r="AM5">
-        <v>696160.0045613134</v>
-      </c>
-      <c r="AN5">
-        <v>373277.2982733528</v>
-      </c>
-      <c r="AO5">
-        <v>623512.3162783404</v>
-      </c>
-      <c r="AP5">
-        <v>353538.8051950071</v>
-      </c>
-      <c r="AQ5">
-        <v>692971.7375441389</v>
-      </c>
-      <c r="AR5">
-        <v>919679.3788419233</v>
-      </c>
       <c r="AS5">
+        <v>428027.15108315297</v>
+      </c>
+      <c r="AT5">
+        <v>371267.05812815129</v>
+      </c>
+      <c r="AU5">
+        <v>696160.00456131343</v>
+      </c>
+      <c r="AV5">
+        <v>373277.29827335279</v>
+      </c>
+      <c r="AW5">
+        <v>623512.31627834041</v>
+      </c>
+      <c r="AX5">
+        <v>353538.80519500712</v>
+      </c>
+      <c r="AY5">
+        <v>692971.73754413892</v>
+      </c>
+      <c r="AZ5">
+        <v>919679.37884192332</v>
+      </c>
+      <c r="BA5">
         <v>427005.9091698213</v>
       </c>
-      <c r="AT5">
-        <v>426732.5689245551</v>
-      </c>
-      <c r="AU5">
-        <v>590262.7639820522</v>
-      </c>
-      <c r="AV5">
-        <v>964387.1133943147</v>
-      </c>
-      <c r="AW5">
-        <v>332422.141305107</v>
-      </c>
-      <c r="AX5">
-        <v>926653.6730217808</v>
-      </c>
-      <c r="AY5">
-        <v>939390.3573942513</v>
-      </c>
-      <c r="AZ5">
-        <v>800915.0867331867</v>
-      </c>
-      <c r="BA5">
-        <v>868604.8743901151</v>
-      </c>
       <c r="BB5">
-        <v>917745.3664242463</v>
+        <v>426732.56892455509</v>
       </c>
       <c r="BC5">
-        <v>728759.0153064595</v>
+        <v>590262.76398205222</v>
       </c>
       <c r="BD5">
-        <v>332305.4551367214</v>
+        <v>964387.11339431466</v>
       </c>
       <c r="BE5">
-        <v>388387.8142537084</v>
+        <v>332422.14130510698</v>
       </c>
       <c r="BF5">
-        <v>409262.4752222906</v>
+        <v>926653.67302178079</v>
       </c>
       <c r="BG5">
-        <v>331897.3445945057</v>
+        <v>939390.35739425127</v>
       </c>
       <c r="BH5">
-        <v>589278.9338615435</v>
+        <v>800915.08673318673</v>
+      </c>
+      <c r="BI5">
+        <v>868604.87439011515</v>
       </c>
       <c r="BJ5">
+        <v>917745.36642424634</v>
+      </c>
+      <c r="BK5">
+        <v>728759.01530645951</v>
+      </c>
+      <c r="BL5">
+        <v>332305.45513672137</v>
+      </c>
+      <c r="BM5">
+        <v>388387.81425370841</v>
+      </c>
+      <c r="BN5">
+        <v>409262.47522229061</v>
+      </c>
+      <c r="BO5">
+        <v>331897.34459450567</v>
+      </c>
+      <c r="BP5">
+        <v>589278.93386154354</v>
+      </c>
+      <c r="BR5">
         <v>815100</v>
       </c>
-      <c r="BK5">
-        <v>0</v>
-      </c>
-      <c r="BL5">
-        <v>0</v>
-      </c>
-      <c r="BN5">
+      <c r="BS5">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
         <v>607172.7520476135</v>
       </c>
-      <c r="BO5">
+      <c r="BW5">
         <v>588369.1531675586</v>
       </c>
-      <c r="BP5">
-        <v>603133.7560603049</v>
+      <c r="BX5">
+        <v>603133.75606030494</v>
       </c>
     </row>
-    <row r="6" spans="1:68">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1677.289936277264</v>
+        <v>1677.2899362772639</v>
       </c>
       <c r="B6">
         <v>1652.523218868856</v>
@@ -1191,328 +1294,432 @@
         <v>1459.337159000271</v>
       </c>
       <c r="F6">
-        <v>1424.862448159069</v>
+        <v>1424.8624481590689</v>
       </c>
       <c r="G6">
         <v>1452.744323559891</v>
       </c>
-      <c r="Q6">
-        <v>0.2438371417628329</v>
-      </c>
-      <c r="R6">
-        <v>0.2622305261300543</v>
-      </c>
-      <c r="S6">
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>217.95277727699295</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>227.66077070978713</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>218.32039464191098</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0.12994341202615092</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0.1377655503476797</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>0.13064748017470024</v>
+      </c>
+      <c r="Y6">
+        <v>0.24383714176283289</v>
+      </c>
+      <c r="Z6">
+        <v>0.26223052613005432</v>
+      </c>
+      <c r="AA6">
         <v>0.2487164532474391</v>
       </c>
-      <c r="Y6">
-        <v>4799000.774393984</v>
-      </c>
-      <c r="Z6">
+      <c r="AG6">
+        <v>4799000.7743939841</v>
+      </c>
+      <c r="AH6">
         <v>4724538.522828972</v>
       </c>
-      <c r="AA6">
-        <v>4783006.350284245</v>
-      </c>
-      <c r="AC6">
-        <v>1170174.632145851</v>
-      </c>
-      <c r="AD6">
+      <c r="AI6">
+        <v>4783006.3502842449</v>
+      </c>
+      <c r="AK6">
+        <v>1170174.6321458509</v>
+      </c>
+      <c r="AL6">
         <v>1238918.222563151</v>
       </c>
-      <c r="AE6">
-        <v>1189612.375302676</v>
-      </c>
-      <c r="AI6" t="s">
+      <c r="AM6">
+        <v>1189612.3753026761</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>19</v>
       </c>
-      <c r="AK6">
+      <c r="AS6">
         <v>468223</v>
       </c>
-      <c r="AL6">
+      <c r="AT6">
         <v>177626</v>
       </c>
-      <c r="AM6">
+      <c r="AU6">
         <v>462832</v>
       </c>
-      <c r="AN6">
+      <c r="AV6">
         <v>201189</v>
       </c>
-      <c r="AO6">
+      <c r="AW6">
         <v>20846</v>
       </c>
-      <c r="AP6">
+      <c r="AX6">
         <v>21245</v>
       </c>
-      <c r="AQ6">
+      <c r="AY6">
         <v>92492</v>
       </c>
-      <c r="AR6">
+      <c r="AZ6">
         <v>22369.625</v>
       </c>
-      <c r="AS6">
+      <c r="BA6">
         <v>509191.5</v>
       </c>
-      <c r="AT6">
+      <c r="BB6">
         <v>445089</v>
       </c>
-      <c r="AU6">
+      <c r="BC6">
         <v>257321.5</v>
       </c>
-      <c r="AV6">
+      <c r="BD6">
         <v>414172</v>
       </c>
-      <c r="AW6">
+      <c r="BE6">
         <v>204885</v>
       </c>
-      <c r="AX6">
+      <c r="BF6">
         <v>252494</v>
       </c>
-      <c r="AY6">
+      <c r="BG6">
         <v>24068</v>
       </c>
-      <c r="AZ6">
+      <c r="BH6">
         <v>114402</v>
       </c>
-      <c r="BA6">
+      <c r="BI6">
         <v>205122.5</v>
       </c>
-      <c r="BB6">
+      <c r="BJ6">
         <v>264935</v>
       </c>
-      <c r="BC6">
+      <c r="BK6">
         <v>715989.5</v>
       </c>
-      <c r="BD6">
+      <c r="BL6">
         <v>203283</v>
       </c>
-      <c r="BE6">
+      <c r="BM6">
         <v>67635</v>
       </c>
-      <c r="BF6">
+      <c r="BN6">
         <v>198420</v>
       </c>
-      <c r="BG6">
+      <c r="BO6">
         <v>52984</v>
       </c>
-      <c r="BH6">
+      <c r="BP6">
         <v>275994</v>
       </c>
-      <c r="BJ6">
+      <c r="BR6">
         <v>1496000</v>
       </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>2404404.098108308</v>
-      </c>
-      <c r="BO6">
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>2404404.0981083079</v>
+      </c>
+      <c r="BW6">
         <v>2329941.846543272</v>
       </c>
-      <c r="BP6">
-        <v>2388409.673998556</v>
+      <c r="BX6">
+        <v>2388409.6739985561</v>
       </c>
     </row>
-    <row r="7" spans="1:68">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>932.3118361240256</v>
       </c>
       <c r="B7">
-        <v>926.3829854788962</v>
+        <v>926.38298547889622</v>
       </c>
       <c r="C7">
-        <v>930.967832091379</v>
+        <v>930.96783209137902</v>
       </c>
       <c r="E7">
-        <v>780.9558396181919</v>
+        <v>780.95583961819193</v>
       </c>
       <c r="F7">
-        <v>770.7497799947637</v>
+        <v>770.74977999476368</v>
       </c>
       <c r="G7">
         <v>783.3734888872782</v>
       </c>
-      <c r="Q7">
-        <v>0.32783725513486</v>
-      </c>
-      <c r="R7">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>151.35599650583367</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>155.63320548413253</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>147.59434320410082</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>0.16234481923460076</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.16800093257722939</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>0.15853860693826177</v>
+      </c>
+      <c r="Y7">
+        <v>0.32783725513486001</v>
+      </c>
+      <c r="Z7">
         <v>0.3400483744012342</v>
       </c>
-      <c r="S7">
-        <v>0.3213690828881652</v>
-      </c>
-      <c r="Y7">
-        <v>2686712.684231849</v>
-      </c>
-      <c r="Z7">
+      <c r="AA7">
+        <v>0.32136908288816518</v>
+      </c>
+      <c r="AG7">
+        <v>2686712.6842318489</v>
+      </c>
+      <c r="AH7">
         <v>2669319.355267799</v>
       </c>
-      <c r="AA7">
-        <v>2682976.61294359</v>
-      </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>2682976.6129435902</v>
+      </c>
+      <c r="AK7">
         <v>880804.5117345812</v>
       </c>
-      <c r="AD7">
+      <c r="AL7">
         <v>907697.7075165658</v>
       </c>
-      <c r="AE7">
-        <v>862225.7335120771</v>
-      </c>
-      <c r="BJ7">
+      <c r="AM7">
+        <v>862225.73351207713</v>
+      </c>
+      <c r="BR7">
         <v>817500</v>
       </c>
-      <c r="BK7">
-        <v>0</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>561634.795644024</v>
-      </c>
-      <c r="BO7">
-        <v>544241.4666799752</v>
-      </c>
-      <c r="BP7">
-        <v>557898.7243557626</v>
+      <c r="BS7">
+        <v>0</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BV7">
+        <v>561634.79564402404</v>
+      </c>
+      <c r="BW7">
+        <v>544241.46667997516</v>
+      </c>
+      <c r="BX7">
+        <v>557898.72435576259</v>
       </c>
     </row>
-    <row r="8" spans="1:68">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1640.817233876781</v>
+        <v>1640.8172338767811</v>
       </c>
       <c r="B8">
-        <v>1615.133178186301</v>
+        <v>1615.1331781863009</v>
       </c>
       <c r="C8">
         <v>1634.994946136899</v>
       </c>
       <c r="E8">
-        <v>1436.77017743209</v>
+        <v>1436.7701774320899</v>
       </c>
       <c r="F8">
         <v>1405.074832765572</v>
       </c>
       <c r="G8">
-        <v>1431.230759408281</v>
-      </c>
-      <c r="Q8">
-        <v>0.2505290569493078</v>
-      </c>
-      <c r="R8">
-        <v>0.2631995772763888</v>
+        <v>1431.2307594082811</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>204.04705644469118</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>210.05834542072898</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>203.76418672861791</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>0.12435696812044474</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.13005636207449597</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>0.12462679912868467</v>
       </c>
       <c r="S8">
-        <v>0.2523782359967914</v>
+        <f>AVERAGE(S3:S5)</f>
+        <v>6729.3182717175359</v>
+      </c>
+      <c r="W8">
+        <f>AVERAGE(W3:W5)</f>
+        <v>0.53910023866759094</v>
       </c>
       <c r="Y8">
+        <v>0.25052905694930783</v>
+      </c>
+      <c r="Z8">
+        <v>0.26319957727638882</v>
+      </c>
+      <c r="AA8">
+        <v>0.25237823599679138</v>
+      </c>
+      <c r="AG8">
         <v>4737536.814926289</v>
       </c>
-      <c r="Z8">
+      <c r="AH8">
         <v>4662188.107985503</v>
       </c>
-      <c r="AA8">
-        <v>4721351.98100572</v>
-      </c>
-      <c r="AC8">
-        <v>1186890.63050611</v>
-      </c>
-      <c r="AD8">
-        <v>1227085.939204791</v>
-      </c>
-      <c r="AE8">
-        <v>1191566.48448618</v>
-      </c>
-      <c r="BJ8">
+      <c r="AI8">
+        <v>4721351.9810057199</v>
+      </c>
+      <c r="AK8">
+        <v>1186890.6305061099</v>
+      </c>
+      <c r="AL8">
+        <v>1227085.9392047911</v>
+      </c>
+      <c r="AM8">
+        <v>1191566.4844861799</v>
+      </c>
+      <c r="BR8">
         <v>1507550</v>
       </c>
-      <c r="BK8">
-        <v>0</v>
-      </c>
-      <c r="BL8">
-        <v>0</v>
-      </c>
-      <c r="BN8">
-        <v>2433027.956419127</v>
-      </c>
-      <c r="BO8">
-        <v>2357679.249478339</v>
-      </c>
-      <c r="BP8">
-        <v>2416843.122498553</v>
+      <c r="BS8">
+        <v>0</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BV8">
+        <v>2433027.9564191271</v>
+      </c>
+      <c r="BW8">
+        <v>2357679.2494783392</v>
+      </c>
+      <c r="BX8">
+        <v>2416843.1224985528</v>
       </c>
     </row>
-    <row r="9" spans="1:68">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1522.303840229527</v>
+        <v>1522.3038402295269</v>
       </c>
       <c r="B9">
-        <v>1512.392382754634</v>
+        <v>1512.3923827546339</v>
       </c>
       <c r="C9">
-        <v>1519.877657413094</v>
+        <v>1519.8776574130941</v>
       </c>
       <c r="E9">
-        <v>1305.400706683262</v>
+        <v>1305.4007066832619</v>
       </c>
       <c r="F9">
-        <v>1282.653648169979</v>
+        <v>1282.6536481699791</v>
       </c>
       <c r="G9">
-        <v>1305.102581871853</v>
-      </c>
-      <c r="Q9">
-        <v>0.2925501533796893</v>
-      </c>
-      <c r="R9">
-        <v>0.3144351623692077</v>
-      </c>
-      <c r="S9">
-        <v>0.2936934230884289</v>
+        <v>1305.1025818718531</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>216.90313354626505</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>229.73873458465482</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>214.77507554124099</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>0.14248346999739636</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0.15190418650893653</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>0.14131076570123324</v>
       </c>
       <c r="Y9">
-        <v>4599727.858454812</v>
+        <v>0.29255015337968931</v>
       </c>
       <c r="Z9">
-        <v>4568298.986041008</v>
+        <v>0.31443516236920771</v>
       </c>
       <c r="AA9">
-        <v>4592976.96516174</v>
-      </c>
-      <c r="AC9">
+        <v>0.29369342308842888</v>
+      </c>
+      <c r="AG9">
+        <v>4599727.8584548123</v>
+      </c>
+      <c r="AH9">
+        <v>4568298.9860410076</v>
+      </c>
+      <c r="AI9">
+        <v>4592976.9651617398</v>
+      </c>
+      <c r="AK9">
         <v>1345651.090495785</v>
       </c>
-      <c r="AD9">
-        <v>1436433.833426891</v>
-      </c>
-      <c r="AE9">
-        <v>1348927.127064655</v>
-      </c>
-      <c r="BJ9">
+      <c r="AL9">
+        <v>1436433.8334268909</v>
+      </c>
+      <c r="AM9">
+        <v>1348927.1270646551</v>
+      </c>
+      <c r="BR9">
         <v>1524600</v>
       </c>
-      <c r="BK9">
-        <v>0</v>
-      </c>
-      <c r="BL9">
-        <v>0</v>
-      </c>
-      <c r="BN9">
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BV9">
         <v>1014845.885565354</v>
       </c>
-      <c r="BO9">
-        <v>983417.0131515329</v>
-      </c>
-      <c r="BP9">
+      <c r="BW9">
+        <v>983417.01315153285</v>
+      </c>
+      <c r="BX9">
         <v>1008094.992272282</v>
       </c>
     </row>
-    <row r="10" spans="1:68">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2046.466411789002</v>
       </c>
@@ -1529,125 +1736,173 @@
         <v>1784.943647430589</v>
       </c>
       <c r="G10">
-        <v>1815.556859434092</v>
-      </c>
-      <c r="Q10">
-        <v>0.2234168109484743</v>
-      </c>
-      <c r="R10">
-        <v>0.2348521670092555</v>
-      </c>
-      <c r="S10">
-        <v>0.2244566518441601</v>
+        <v>1815.5568594340921</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>225.562686422654</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>230.61934823155002</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>223.34483875290493</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0.11022056610519651</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0.11441932042207817</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>0.10954173953138811</v>
       </c>
       <c r="Y10">
-        <v>6241817.846566086</v>
+        <v>0.22341681094847429</v>
       </c>
       <c r="Z10">
-        <v>6143824.234116892</v>
+        <v>0.23485216700925551</v>
       </c>
       <c r="AA10">
-        <v>6220768.907477944</v>
-      </c>
-      <c r="AC10">
+        <v>0.22445665184416011</v>
+      </c>
+      <c r="AG10">
+        <v>6241817.8465660857</v>
+      </c>
+      <c r="AH10">
+        <v>6143824.2341168923</v>
+      </c>
+      <c r="AI10">
+        <v>6220768.9074779442</v>
+      </c>
+      <c r="AK10">
         <v>1394527.037801068</v>
       </c>
-      <c r="AD10">
-        <v>1442890.435106332</v>
-      </c>
-      <c r="AE10">
+      <c r="AL10">
+        <v>1442890.4351063319</v>
+      </c>
+      <c r="AM10">
         <v>1396292.960868753</v>
       </c>
-      <c r="BJ10">
+      <c r="BR10">
         <v>1508650</v>
       </c>
-      <c r="BK10">
-        <v>0</v>
-      </c>
-      <c r="BL10">
-        <v>0</v>
-      </c>
-      <c r="BN10">
-        <v>3164237.427813119</v>
-      </c>
-      <c r="BO10">
-        <v>3066243.815363946</v>
-      </c>
-      <c r="BP10">
-        <v>3143188.488724977</v>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BV10">
+        <v>3164237.4278131188</v>
+      </c>
+      <c r="BW10">
+        <v>3066243.8153639459</v>
+      </c>
+      <c r="BX10">
+        <v>3143188.4887249768</v>
       </c>
     </row>
-    <row r="11" spans="1:68">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1853.9632311131</v>
+        <v>1853.9632311130999</v>
       </c>
       <c r="B11">
         <v>1839.985534674124</v>
       </c>
       <c r="C11">
-        <v>1850.54169124377</v>
+        <v>1850.5416912437699</v>
       </c>
       <c r="E11">
         <v>1597.941809852726</v>
       </c>
       <c r="F11">
-        <v>1571.691322867612</v>
+        <v>1571.6913228676119</v>
       </c>
       <c r="G11">
         <v>1600.06409148135</v>
       </c>
-      <c r="Q11">
-        <v>0.2834503151906527</v>
-      </c>
-      <c r="R11">
-        <v>0.3019153204456057</v>
-      </c>
-      <c r="S11">
-        <v>0.2811261617084487</v>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>256.02142126037393</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>268.29421180651207</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>250.47759976241991</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0.13809412018741135</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="6"/>
+        <v>0.145813217957732</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>0.13535366479318339</v>
       </c>
       <c r="Y11">
-        <v>5601599.647671769</v>
+        <v>0.28345031519065272</v>
       </c>
       <c r="Z11">
-        <v>5557276.878883071</v>
+        <v>0.30191532044560571</v>
       </c>
       <c r="AA11">
-        <v>5592079.157130258</v>
-      </c>
-      <c r="AC11">
-        <v>1587775.185704412</v>
-      </c>
-      <c r="AD11">
-        <v>1677827.029692938</v>
-      </c>
-      <c r="AE11">
+        <v>0.28112616170844867</v>
+      </c>
+      <c r="AG11">
+        <v>5601599.6476717694</v>
+      </c>
+      <c r="AH11">
+        <v>5557276.8788830712</v>
+      </c>
+      <c r="AI11">
+        <v>5592079.1571302582</v>
+      </c>
+      <c r="AK11">
+        <v>1587775.1857044119</v>
+      </c>
+      <c r="AL11">
+        <v>1677827.0296929381</v>
+      </c>
+      <c r="AM11">
         <v>1572079.749413847</v>
       </c>
-      <c r="BJ11">
+      <c r="BR11">
         <v>2038500</v>
       </c>
-      <c r="BK11">
-        <v>0</v>
-      </c>
-      <c r="BL11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>1431192.91554075</v>
-      </c>
-      <c r="BO11">
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BV11">
+        <v>1431192.9155407499</v>
+      </c>
+      <c r="BW11">
         <v>1386870.146752039</v>
       </c>
-      <c r="BP11">
-        <v>1421672.424999236</v>
+      <c r="BX11">
+        <v>1421672.4249992359</v>
       </c>
     </row>
-    <row r="12" spans="1:68">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2385.957996565726</v>
+        <v>2385.9579965657258</v>
       </c>
       <c r="B12">
-        <v>2349.924745733069</v>
+        <v>2349.9247457330689</v>
       </c>
       <c r="C12">
         <v>2376.900888160842</v>
@@ -1656,58 +1911,82 @@
         <v>2114.027887318518</v>
       </c>
       <c r="F12">
-        <v>2069.480845947491</v>
+        <v>2069.4808459474912</v>
       </c>
       <c r="G12">
-        <v>2111.566445323716</v>
-      </c>
-      <c r="Q12">
-        <v>0.213486531258619</v>
-      </c>
-      <c r="R12">
-        <v>0.226839006629858</v>
-      </c>
-      <c r="S12">
-        <v>0.212308906260341</v>
+        <v>2111.5664453237159</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>271.93010924720784</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>280.44389978557774</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="4"/>
+        <v>265.33444283712606</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0.11397103789698546</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="6"/>
+        <v>0.11934165138470938</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>0.11163041932406026</v>
       </c>
       <c r="Y12">
-        <v>6842925.768336128</v>
+        <v>0.21348653125861899</v>
       </c>
       <c r="Z12">
-        <v>6734590.176502905</v>
+        <v>0.22683900662985801</v>
       </c>
       <c r="AA12">
-        <v>6819655.381454969</v>
-      </c>
-      <c r="AC12">
-        <v>1460872.4859423</v>
-      </c>
-      <c r="AD12">
+        <v>0.21230890626034099</v>
+      </c>
+      <c r="AG12">
+        <v>6842925.7683361284</v>
+      </c>
+      <c r="AH12">
+        <v>6734590.1765029049</v>
+      </c>
+      <c r="AI12">
+        <v>6819655.3814549688</v>
+      </c>
+      <c r="AK12">
+        <v>1460872.4859422999</v>
+      </c>
+      <c r="AL12">
         <v>1527667.745697119</v>
       </c>
-      <c r="AE12">
-        <v>1447873.575109153</v>
-      </c>
-      <c r="BJ12">
+      <c r="AM12">
+        <v>1447873.5751091531</v>
+      </c>
+      <c r="BR12">
         <v>1505350</v>
       </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BV12">
         <v>3498182.441439556</v>
       </c>
-      <c r="BO12">
-        <v>3389846.849606359</v>
-      </c>
-      <c r="BP12">
-        <v>3474912.054558403</v>
+      <c r="BW12">
+        <v>3389846.8496063589</v>
+      </c>
+      <c r="BX12">
+        <v>3474912.0545584029</v>
       </c>
     </row>
-    <row r="13" spans="1:68">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1233.357088714376</v>
       </c>
@@ -1726,120 +2005,168 @@
       <c r="G13">
         <v>1020.648913102257</v>
       </c>
-      <c r="Q13">
-        <v>0.3254245799138246</v>
-      </c>
-      <c r="R13">
-        <v>0.3418360476892809</v>
-      </c>
-      <c r="S13">
-        <v>0.3302205801632777</v>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>210.56415332861297</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>216.59534931310395</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="4"/>
+        <v>210.59155655146401</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>0.17072440354488119</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="6"/>
+        <v>0.17682173544829902</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>0.17104015157225266</v>
       </c>
       <c r="Y13">
-        <v>3498202.217579234</v>
+        <v>0.32542457991382462</v>
       </c>
       <c r="Z13">
-        <v>3472884.514801447</v>
+        <v>0.34183604768928089</v>
       </c>
       <c r="AA13">
-        <v>3492763.997982037</v>
-      </c>
-      <c r="AC13">
-        <v>1138400.987109332</v>
-      </c>
-      <c r="AD13">
-        <v>1187157.116621033</v>
-      </c>
-      <c r="AE13">
+        <v>0.33022058016327771</v>
+      </c>
+      <c r="AG13">
+        <v>3498202.2175792339</v>
+      </c>
+      <c r="AH13">
+        <v>3472884.5148014468</v>
+      </c>
+      <c r="AI13">
+        <v>3492763.9979820368</v>
+      </c>
+      <c r="AK13">
+        <v>1138400.9871093321</v>
+      </c>
+      <c r="AL13">
+        <v>1187157.1166210331</v>
+      </c>
+      <c r="AM13">
         <v>1153382.553787037</v>
       </c>
-      <c r="BJ13">
+      <c r="BR13">
         <v>1518000</v>
       </c>
-      <c r="BK13">
-        <v>0</v>
-      </c>
-      <c r="BL13">
-        <v>0</v>
-      </c>
-      <c r="BN13">
-        <v>817514.7411497346</v>
-      </c>
-      <c r="BO13">
-        <v>792197.038371945</v>
-      </c>
-      <c r="BP13">
-        <v>812076.5215525402</v>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BV13">
+        <v>817514.74114973459</v>
+      </c>
+      <c r="BW13">
+        <v>792197.03837194503</v>
+      </c>
+      <c r="BX13">
+        <v>812076.52155254025</v>
       </c>
     </row>
-    <row r="14" spans="1:68">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2220.432836164131</v>
       </c>
       <c r="B14">
-        <v>2182.28208460067</v>
+        <v>2182.2820846006698</v>
       </c>
       <c r="C14">
-        <v>2210.843485088293</v>
+        <v>2210.8434850882932</v>
       </c>
       <c r="E14">
-        <v>1990.286182167186</v>
+        <v>1990.2861821671861</v>
       </c>
       <c r="F14">
-        <v>1948.026239298781</v>
+        <v>1948.0262392987811</v>
       </c>
       <c r="G14">
-        <v>1987.100413613514</v>
-      </c>
-      <c r="Q14">
-        <v>0.1932325946089845</v>
-      </c>
-      <c r="R14">
-        <v>0.2029909367134635</v>
-      </c>
-      <c r="S14">
-        <v>0.1914042905391851</v>
+        <v>1987.1004136135141</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>230.14665399694491</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>234.25584530188871</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>223.74307147477907</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>0.10364945529923375</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="6"/>
+        <v>0.10734443862914018</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>0.10120258307921041</v>
       </c>
       <c r="Y14">
-        <v>6412721.614560936</v>
+        <v>0.19323259460898451</v>
       </c>
       <c r="Z14">
-        <v>6298019.66139261</v>
+        <v>0.20299093671346349</v>
       </c>
       <c r="AA14">
-        <v>6388083.739038358</v>
-      </c>
-      <c r="AC14">
+        <v>0.19140429053918509</v>
+      </c>
+      <c r="AG14">
+        <v>6412721.6145609356</v>
+      </c>
+      <c r="AH14">
+        <v>6298019.6613926096</v>
+      </c>
+      <c r="AI14">
+        <v>6388083.7390383584</v>
+      </c>
+      <c r="AK14">
         <v>1239146.836086726</v>
       </c>
-      <c r="AD14">
+      <c r="AL14">
         <v>1278440.910505896</v>
       </c>
-      <c r="AE14">
+      <c r="AM14">
         <v>1222706.635975542</v>
       </c>
-      <c r="BJ14">
+      <c r="BR14">
         <v>818100</v>
       </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>3703753.787490017</v>
-      </c>
-      <c r="BO14">
+      <c r="BS14">
+        <v>0</v>
+      </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
+      <c r="BV14">
+        <v>3703753.7874900168</v>
+      </c>
+      <c r="BW14">
         <v>3589051.834321674</v>
       </c>
-      <c r="BP14">
-        <v>3679115.911967429</v>
+      <c r="BX14">
+        <v>3679115.9119674289</v>
       </c>
     </row>
-    <row r="15" spans="1:68">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>1155.04840924952</v>
+        <v>1155.0484092495201</v>
       </c>
       <c r="B15">
         <v>1140.008815141987</v>
@@ -1848,134 +2175,182 @@
         <v>1151.639101722692</v>
       </c>
       <c r="E15">
-        <v>999.5464186438144</v>
+        <v>999.54641864381438</v>
       </c>
       <c r="F15">
-        <v>982.219596274994</v>
+        <v>982.21959627499405</v>
       </c>
       <c r="G15">
-        <v>998.4755334548506</v>
-      </c>
-      <c r="Q15">
-        <v>0.2712743784973201</v>
-      </c>
-      <c r="R15">
-        <v>0.2799892733914742</v>
-      </c>
-      <c r="S15">
-        <v>0.2693352159072958</v>
+        <v>998.47553345485062</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>155.50199060570571</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>157.789218866993</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="4"/>
+        <v>153.16356826784136</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>0.13462811546291936</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="6"/>
+        <v>0.13841052522680755</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>0.13299615134526949</v>
       </c>
       <c r="Y15">
-        <v>3330459.138596559</v>
+        <v>0.27127437849732011</v>
       </c>
       <c r="Z15">
-        <v>3286337.836938719</v>
+        <v>0.27998927339147422</v>
       </c>
       <c r="AA15">
-        <v>3320981.923012054</v>
-      </c>
-      <c r="AC15">
+        <v>0.26933521590729581</v>
+      </c>
+      <c r="AG15">
+        <v>3330459.1385965589</v>
+      </c>
+      <c r="AH15">
+        <v>3286337.8369387188</v>
+      </c>
+      <c r="AI15">
+        <v>3320981.9230120541</v>
+      </c>
+      <c r="AK15">
         <v>903468.2329335016</v>
       </c>
-      <c r="AD15">
-        <v>920139.3430833807</v>
-      </c>
-      <c r="AE15">
-        <v>894457.3832586778</v>
-      </c>
-      <c r="BJ15">
+      <c r="AL15">
+        <v>920139.34308338072</v>
+      </c>
+      <c r="AM15">
+        <v>894457.38325867779</v>
+      </c>
+      <c r="BR15">
         <v>849600</v>
       </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>1424687.493197309</v>
-      </c>
-      <c r="BO15">
-        <v>1380566.191539463</v>
-      </c>
-      <c r="BP15">
-        <v>1415210.277612801</v>
+      <c r="BS15">
+        <v>0</v>
+      </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
+      <c r="BV15">
+        <v>1424687.4931973091</v>
+      </c>
+      <c r="BW15">
+        <v>1380566.1915394629</v>
+      </c>
+      <c r="BX15">
+        <v>1415210.2776128009</v>
       </c>
     </row>
-    <row r="16" spans="1:68">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1797.284816285988</v>
       </c>
       <c r="B16">
-        <v>1773.70218333381</v>
+        <v>1773.7021833338099</v>
       </c>
       <c r="C16">
-        <v>1791.938897543003</v>
+        <v>1791.9388975430029</v>
       </c>
       <c r="E16">
-        <v>1563.320030378421</v>
+        <v>1563.3200303784211</v>
       </c>
       <c r="F16">
         <v>1535.893254090601</v>
       </c>
       <c r="G16">
-        <v>1558.806134535564</v>
-      </c>
-      <c r="Q16">
-        <v>0.2625153039133428</v>
-      </c>
-      <c r="R16">
-        <v>0.2713624865173196</v>
-      </c>
-      <c r="S16">
-        <v>0.263421337307116</v>
+        <v>1558.8061345355641</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>233.96478590756692</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>237.80892924320892</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="4"/>
+        <v>233.13276300743883</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>0.13017679990812203</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>0.13407489232280739</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0.13010084402269309</v>
       </c>
       <c r="Y16">
-        <v>5186089.16972981</v>
+        <v>0.26251530391334282</v>
       </c>
       <c r="Z16">
-        <v>5116905.356993269</v>
+        <v>0.27136248651731959</v>
       </c>
       <c r="AA16">
-        <v>5171228.549493651</v>
-      </c>
-      <c r="AC16">
+        <v>0.26342133730711598</v>
+      </c>
+      <c r="AG16">
+        <v>5186089.1697298102</v>
+      </c>
+      <c r="AH16">
+        <v>5116905.3569932692</v>
+      </c>
+      <c r="AI16">
+        <v>5171228.5494936509</v>
+      </c>
+      <c r="AK16">
         <v>1361427.774513317</v>
       </c>
-      <c r="AD16">
-        <v>1388536.160947486</v>
-      </c>
-      <c r="AE16">
+      <c r="AL16">
+        <v>1388536.1609474861</v>
+      </c>
+      <c r="AM16">
         <v>1362211.940028355</v>
       </c>
-      <c r="BJ16">
+      <c r="BR16">
         <v>1492150</v>
       </c>
-      <c r="BK16">
-        <v>0</v>
-      </c>
-      <c r="BL16">
-        <v>0</v>
-      </c>
-      <c r="BN16">
-        <v>2233962.032712234</v>
-      </c>
-      <c r="BO16">
-        <v>2164778.219975721</v>
-      </c>
-      <c r="BP16">
-        <v>2219101.41247607</v>
+      <c r="BS16">
+        <v>0</v>
+      </c>
+      <c r="BT16">
+        <v>0</v>
+      </c>
+      <c r="BV16">
+        <v>2233962.0327122342</v>
+      </c>
+      <c r="BW16">
+        <v>2164778.2199757211</v>
+      </c>
+      <c r="BX16">
+        <v>2219101.4124760702</v>
       </c>
     </row>
-    <row r="17" spans="1:68">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1409.969057212533</v>
       </c>
       <c r="B17">
-        <v>1400.311739672882</v>
+        <v>1400.3117396728819</v>
       </c>
       <c r="C17">
-        <v>1407.605084211907</v>
+        <v>1407.6050842119071</v>
       </c>
       <c r="E17">
         <v>1211.964845911868</v>
@@ -1984,57 +2359,81 @@
         <v>1188.640249708779</v>
       </c>
       <c r="G17">
-        <v>1207.478429653953</v>
-      </c>
-      <c r="Q17">
+        <v>1207.4784296539531</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>198.00421130066502</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>211.67148996410288</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>200.126654557954</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>0.14043160045803663</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="6"/>
+        <v>0.15116026236668567</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>0.14217528538553223</v>
+      </c>
+      <c r="Y17">
         <v>0.2887123464924865</v>
       </c>
-      <c r="R17">
-        <v>0.3140323963555735</v>
-      </c>
-      <c r="S17">
+      <c r="Z17">
+        <v>0.31403239635557351</v>
+      </c>
+      <c r="AA17">
         <v>0.2965417850777492</v>
       </c>
-      <c r="Y17">
-        <v>4260276.50088651</v>
-      </c>
-      <c r="Z17">
-        <v>4229653.496996136</v>
-      </c>
-      <c r="AA17">
-        <v>4253698.707421465</v>
-      </c>
-      <c r="AC17">
+      <c r="AG17">
+        <v>4260276.5008865101</v>
+      </c>
+      <c r="AH17">
+        <v>4229653.4969961364</v>
+      </c>
+      <c r="AI17">
+        <v>4253698.7074214648</v>
+      </c>
+      <c r="AK17">
         <v>1229994.425277744</v>
       </c>
-      <c r="AD17">
-        <v>1328248.223415428</v>
-      </c>
-      <c r="AE17">
+      <c r="AL17">
+        <v>1328248.2234154281</v>
+      </c>
+      <c r="AM17">
         <v>1261399.407881676</v>
       </c>
-      <c r="BJ17">
+      <c r="BR17">
         <v>1537250</v>
       </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>988824.1961916318</v>
-      </c>
-      <c r="BO17">
+      <c r="BS17">
+        <v>0</v>
+      </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
+      <c r="BV17">
+        <v>988824.19619163184</v>
+      </c>
+      <c r="BW17">
         <v>958201.1923012659</v>
       </c>
-      <c r="BP17">
-        <v>982246.4027265878</v>
+      <c r="BX17">
+        <v>982246.40272658784</v>
       </c>
     </row>
-    <row r="18" spans="1:68">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1572.191695091548</v>
+        <v>1572.1916950915479</v>
       </c>
       <c r="B18">
         <v>1557.061897612768</v>
@@ -2043,63 +2442,87 @@
         <v>1568.488137390571</v>
       </c>
       <c r="E18">
-        <v>1350.790074203174</v>
+        <v>1350.7900742031741</v>
       </c>
       <c r="F18">
         <v>1328.850133891443</v>
       </c>
       <c r="G18">
-        <v>1351.081016931286</v>
-      </c>
-      <c r="Q18">
-        <v>0.2883338791550192</v>
-      </c>
-      <c r="R18">
-        <v>0.3025619643845172</v>
-      </c>
-      <c r="S18">
-        <v>0.2864117099793496</v>
+        <v>1351.0810169312861</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>221.40162088837383</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>228.21176372132504</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>217.4071204592849</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>0.14082355324710052</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="6"/>
+        <v>0.14656563369202677</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>0.1386093495236605</v>
       </c>
       <c r="Y18">
-        <v>4772203.411359952</v>
+        <v>0.28833387915501918</v>
       </c>
       <c r="Z18">
+        <v>0.30256196438451721</v>
+      </c>
+      <c r="AA18">
+        <v>0.28641170997934962</v>
+      </c>
+      <c r="AG18">
+        <v>4772203.4113599518</v>
+      </c>
+      <c r="AH18">
         <v>4724227.371931701</v>
       </c>
-      <c r="AA18">
-        <v>4761898.201598049</v>
-      </c>
-      <c r="AC18">
-        <v>1375987.921714231</v>
-      </c>
-      <c r="AD18">
-        <v>1429371.51385076</v>
-      </c>
-      <c r="AE18">
+      <c r="AI18">
+        <v>4761898.2015980491</v>
+      </c>
+      <c r="AK18">
+        <v>1375987.9217142309</v>
+      </c>
+      <c r="AL18">
+        <v>1429371.5138507599</v>
+      </c>
+      <c r="AM18">
         <v>1363863.406667287</v>
       </c>
-      <c r="BJ18">
+      <c r="BR18">
         <v>1478400</v>
       </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>1549157.907367055</v>
-      </c>
-      <c r="BO18">
+      <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
+        <v>1549157.9073670551</v>
+      </c>
+      <c r="BW18">
         <v>1501181.86793879</v>
       </c>
-      <c r="BP18">
-        <v>1538852.697605152</v>
+      <c r="BX18">
+        <v>1538852.6976051519</v>
       </c>
     </row>
-    <row r="19" spans="1:68">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1857.891356387705</v>
+        <v>1857.8913563877049</v>
       </c>
       <c r="B19">
         <v>1846.031492742527</v>
@@ -2114,125 +2537,173 @@
         <v>1570.486816833911</v>
       </c>
       <c r="G19">
-        <v>1587.040643137873</v>
-      </c>
-      <c r="Q19">
-        <v>0.2962798035879545</v>
-      </c>
-      <c r="R19">
-        <v>0.3104243260716633</v>
-      </c>
-      <c r="S19">
-        <v>0.2999090248175009</v>
+        <v>1587.0406431378731</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>268.62027687100795</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>275.544675908616</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>267.94758851221991</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>0.14458341492760152</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="6"/>
+        <v>0.14926325850446759</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>0.14444705574971159</v>
       </c>
       <c r="Y19">
-        <v>5620887.310769688</v>
+        <v>0.29627980358795453</v>
       </c>
       <c r="Z19">
-        <v>5583280.113009581</v>
+        <v>0.31042432607166331</v>
       </c>
       <c r="AA19">
-        <v>5612809.318795072</v>
-      </c>
-      <c r="AC19">
-        <v>1665355.388424869</v>
-      </c>
-      <c r="AD19">
-        <v>1733185.966350319</v>
-      </c>
-      <c r="AE19">
+        <v>0.29990902481750092</v>
+      </c>
+      <c r="AG19">
+        <v>5620887.3107696883</v>
+      </c>
+      <c r="AH19">
+        <v>5583280.1130095813</v>
+      </c>
+      <c r="AI19">
+        <v>5612809.3187950719</v>
+      </c>
+      <c r="AK19">
+        <v>1665355.3884248689</v>
+      </c>
+      <c r="AL19">
+        <v>1733185.9663503191</v>
+      </c>
+      <c r="AM19">
         <v>1683332.169286411</v>
       </c>
-      <c r="BJ19">
+      <c r="BR19">
         <v>2042250</v>
       </c>
-      <c r="BK19">
-        <v>0</v>
-      </c>
-      <c r="BL19">
-        <v>0</v>
-      </c>
-      <c r="BN19">
+      <c r="BS19">
+        <v>0</v>
+      </c>
+      <c r="BT19">
+        <v>0</v>
+      </c>
+      <c r="BV19">
         <v>1214345.504095227</v>
       </c>
-      <c r="BO19">
+      <c r="BW19">
         <v>1176738.306335117</v>
       </c>
-      <c r="BP19">
-        <v>1206267.51212061</v>
+      <c r="BX19">
+        <v>1206267.5121206101</v>
       </c>
     </row>
-    <row r="20" spans="1:68">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3038.541097731324</v>
       </c>
       <c r="B20">
-        <v>2980.327696838653</v>
+        <v>2980.3276968386531</v>
       </c>
       <c r="C20">
-        <v>3023.908915779427</v>
+        <v>3023.9089157794269</v>
       </c>
       <c r="E20">
-        <v>2749.885739013729</v>
+        <v>2749.8857390137291</v>
       </c>
       <c r="F20">
-        <v>2680.164828541317</v>
+        <v>2680.1648285413171</v>
       </c>
       <c r="G20">
-        <v>2740.965100714602</v>
-      </c>
-      <c r="Q20">
-        <v>0.1761441263860788</v>
-      </c>
-      <c r="R20">
-        <v>0.1892579460035886</v>
-      </c>
-      <c r="S20">
+        <v>2740.9651007146022</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>288.65535871759494</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>300.16286829733599</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>282.94381506482478</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>9.4998010371857289E-2</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="6"/>
+        <v>0.10071471959802614</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>9.3568894746915571E-2</v>
+      </c>
+      <c r="Y20">
+        <v>0.17614412638607879</v>
+      </c>
+      <c r="Z20">
+        <v>0.18925794600358861</v>
+      </c>
+      <c r="AA20">
         <v>0.1766145962797788</v>
       </c>
-      <c r="Y20">
+      <c r="AG20">
         <v>8752258.016883526</v>
       </c>
-      <c r="Z20">
-        <v>8577236.804736398</v>
-      </c>
-      <c r="AA20">
-        <v>8714663.61923309</v>
-      </c>
-      <c r="AC20">
-        <v>1541658.842289504</v>
-      </c>
-      <c r="AD20">
-        <v>1623310.220050794</v>
-      </c>
-      <c r="AE20">
-        <v>1539136.796824928</v>
-      </c>
-      <c r="BJ20">
+      <c r="AH20">
+        <v>8577236.8047363982</v>
+      </c>
+      <c r="AI20">
+        <v>8714663.6192330904</v>
+      </c>
+      <c r="AK20">
+        <v>1541658.8422895039</v>
+      </c>
+      <c r="AL20">
+        <v>1623310.2200507941</v>
+      </c>
+      <c r="AM20">
+        <v>1539136.7968249279</v>
+      </c>
+      <c r="BR20">
         <v>1506450</v>
       </c>
-      <c r="BK20">
-        <v>0</v>
-      </c>
-      <c r="BL20">
-        <v>0</v>
-      </c>
-      <c r="BN20">
-        <v>5651477.237094345</v>
-      </c>
-      <c r="BO20">
-        <v>5476456.024947152</v>
-      </c>
-      <c r="BP20">
-        <v>5613882.839443871</v>
+      <c r="BS20">
+        <v>0</v>
+      </c>
+      <c r="BT20">
+        <v>0</v>
+      </c>
+      <c r="BV20">
+        <v>5651477.2370943446</v>
+      </c>
+      <c r="BW20">
+        <v>5476456.0249471515</v>
+      </c>
+      <c r="BX20">
+        <v>5613882.8394438708</v>
       </c>
     </row>
-    <row r="21" spans="1:68">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>1550.247080899139</v>
+        <v>1550.2470808991391</v>
       </c>
       <c r="B21">
-        <v>1540.981898376598</v>
+        <v>1540.9818983765981</v>
       </c>
       <c r="C21">
         <v>1547.918238495012</v>
@@ -2244,60 +2715,84 @@
         <v>1304.326269088117</v>
       </c>
       <c r="G21">
-        <v>1318.383622335196</v>
-      </c>
-      <c r="Q21">
-        <v>0.2825737994618311</v>
-      </c>
-      <c r="R21">
-        <v>0.2949383233567833</v>
-      </c>
-      <c r="S21">
+        <v>1318.3836223351959</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>230.74395637838006</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>236.65562928848112</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>229.5346161598161</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>0.14884334195588306</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="6"/>
+        <v>0.15357456796721258</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>0.14828600791149329</v>
+      </c>
+      <c r="Y21">
+        <v>0.28257379946183109</v>
+      </c>
+      <c r="Z21">
+        <v>0.29493832335678333</v>
+      </c>
+      <c r="AA21">
         <v>0.284917481334171</v>
       </c>
-      <c r="Y21">
-        <v>4424243.434073009</v>
-      </c>
-      <c r="Z21">
-        <v>4396387.245446416</v>
-      </c>
-      <c r="AA21">
-        <v>4418259.950017526</v>
-      </c>
-      <c r="AC21">
-        <v>1250175.276910069</v>
-      </c>
-      <c r="AD21">
+      <c r="AG21">
+        <v>4424243.4340730086</v>
+      </c>
+      <c r="AH21">
+        <v>4396387.2454464156</v>
+      </c>
+      <c r="AI21">
+        <v>4418259.9500175258</v>
+      </c>
+      <c r="AK21">
+        <v>1250175.2769100689</v>
+      </c>
+      <c r="AL21">
         <v>1296663.082999113</v>
       </c>
-      <c r="AE21">
-        <v>1258839.496838634</v>
-      </c>
-      <c r="BJ21">
+      <c r="AM21">
+        <v>1258839.4968386339</v>
+      </c>
+      <c r="BR21">
         <v>816300</v>
       </c>
-      <c r="BK21">
-        <v>0</v>
-      </c>
-      <c r="BL21">
-        <v>0</v>
-      </c>
-      <c r="BN21">
-        <v>899483.0626762395</v>
-      </c>
-      <c r="BO21">
-        <v>871626.8740496438</v>
-      </c>
-      <c r="BP21">
-        <v>893499.5786207556</v>
+      <c r="BS21">
+        <v>0</v>
+      </c>
+      <c r="BT21">
+        <v>0</v>
+      </c>
+      <c r="BV21">
+        <v>899483.06267623953</v>
+      </c>
+      <c r="BW21">
+        <v>871626.87404964375</v>
+      </c>
+      <c r="BX21">
+        <v>893499.57862075558</v>
       </c>
     </row>
-    <row r="22" spans="1:68">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1743.430224927808</v>
       </c>
       <c r="B22">
-        <v>1725.668235675308</v>
+        <v>1725.6682356753081</v>
       </c>
       <c r="C22">
         <v>1738.965674590856</v>
@@ -2306,58 +2801,82 @@
         <v>1486.617068530662</v>
       </c>
       <c r="F22">
-        <v>1463.255226382755</v>
+        <v>1463.2552263827549</v>
       </c>
       <c r="G22">
-        <v>1490.699269305305</v>
-      </c>
-      <c r="Q22">
+        <v>1490.6992693053051</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>256.81315639714603</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>262.41300929255317</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>248.26640528555095</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>0.14730337510798872</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>0.15206457641602397</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>0.14276670834458138</v>
+      </c>
+      <c r="Y22">
         <v>0.2770046230567878</v>
       </c>
-      <c r="R22">
-        <v>0.289146645136023</v>
-      </c>
-      <c r="S22">
-        <v>0.2718474463292339</v>
-      </c>
-      <c r="Y22">
-        <v>4978756.067258216</v>
-      </c>
       <c r="Z22">
-        <v>4925353.846438863</v>
+        <v>0.28914664513602301</v>
       </c>
       <c r="AA22">
-        <v>4967285.318654262</v>
-      </c>
-      <c r="AC22">
-        <v>1379138.447702557</v>
-      </c>
-      <c r="AD22">
-        <v>1424149.540805604</v>
-      </c>
-      <c r="AE22">
-        <v>1350343.829064856</v>
-      </c>
-      <c r="BJ22">
+        <v>0.27184744632923391</v>
+      </c>
+      <c r="AG22">
+        <v>4978756.0672582164</v>
+      </c>
+      <c r="AH22">
+        <v>4925353.8464388633</v>
+      </c>
+      <c r="AI22">
+        <v>4967285.3186542625</v>
+      </c>
+      <c r="AK22">
+        <v>1379138.4477025571</v>
+      </c>
+      <c r="AL22">
+        <v>1424149.5408056041</v>
+      </c>
+      <c r="AM22">
+        <v>1350343.8290648561</v>
+      </c>
+      <c r="BR22">
         <v>1509750</v>
       </c>
-      <c r="BK22">
-        <v>0</v>
-      </c>
-      <c r="BL22">
-        <v>0</v>
-      </c>
-      <c r="BN22">
+      <c r="BS22">
+        <v>0</v>
+      </c>
+      <c r="BT22">
+        <v>0</v>
+      </c>
+      <c r="BV22">
         <v>1724370.615815124</v>
       </c>
-      <c r="BO22">
-        <v>1670968.394995775</v>
-      </c>
-      <c r="BP22">
+      <c r="BW22">
+        <v>1670968.3949957751</v>
+      </c>
+      <c r="BX22">
         <v>1712899.867211177</v>
       </c>
     </row>
-    <row r="23" spans="1:68">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1082.619260163209</v>
       </c>
@@ -2365,72 +2884,96 @@
         <v>1072.318168308725</v>
       </c>
       <c r="C23">
-        <v>1080.284118021539</v>
+        <v>1080.2841180215389</v>
       </c>
       <c r="E23">
-        <v>924.481462365252</v>
+        <v>924.48146236525201</v>
       </c>
       <c r="F23">
-        <v>909.5208715413924</v>
+        <v>909.52087154139235</v>
       </c>
       <c r="G23">
-        <v>923.0611159126759</v>
-      </c>
-      <c r="Q23">
-        <v>0.2945693329337699</v>
-      </c>
-      <c r="R23">
-        <v>0.3072242960865619</v>
-      </c>
-      <c r="S23">
-        <v>0.2943813476751078</v>
+        <v>923.06111591267586</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>158.13779779795698</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>162.79729676733268</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>157.22300210886306</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>0.1460696328034263</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>0.15181809054312567</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>0.14553856664745332</v>
       </c>
       <c r="Y23">
-        <v>3126923.771310192</v>
+        <v>0.29456933293376991</v>
       </c>
       <c r="Z23">
-        <v>3096703.701681535</v>
+        <v>0.30722429608656188</v>
       </c>
       <c r="AA23">
-        <v>3120432.527759161</v>
-      </c>
-      <c r="AC23">
-        <v>921095.8494495912</v>
-      </c>
-      <c r="AD23">
-        <v>951382.6149377602</v>
-      </c>
-      <c r="AE23">
-        <v>918597.132850985</v>
-      </c>
-      <c r="BJ23">
+        <v>0.29438134767510782</v>
+      </c>
+      <c r="AG23">
+        <v>3126923.7713101921</v>
+      </c>
+      <c r="AH23">
+        <v>3096703.7016815352</v>
+      </c>
+      <c r="AI23">
+        <v>3120432.5277591608</v>
+      </c>
+      <c r="AK23">
+        <v>921095.84944959125</v>
+      </c>
+      <c r="AL23">
+        <v>951382.61493776017</v>
+      </c>
+      <c r="AM23">
+        <v>918597.13285098504</v>
+      </c>
+      <c r="BR23">
         <v>833100</v>
       </c>
-      <c r="BK23">
-        <v>0</v>
-      </c>
-      <c r="BL23">
-        <v>0</v>
-      </c>
-      <c r="BN23">
-        <v>975813.351505002</v>
-      </c>
-      <c r="BO23">
-        <v>945593.2818763448</v>
-      </c>
-      <c r="BP23">
-        <v>969322.1079539714</v>
+      <c r="BS23">
+        <v>0</v>
+      </c>
+      <c r="BT23">
+        <v>0</v>
+      </c>
+      <c r="BV23">
+        <v>975813.35150500201</v>
+      </c>
+      <c r="BW23">
+        <v>945593.28187634482</v>
+      </c>
+      <c r="BX23">
+        <v>969322.10795397137</v>
       </c>
     </row>
-    <row r="24" spans="1:68">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>1819.419457043305</v>
+        <v>1819.4194570433051</v>
       </c>
       <c r="B24">
         <v>1796.757054963469</v>
       </c>
       <c r="C24">
-        <v>1814.282144331644</v>
+        <v>1814.2821443316441</v>
       </c>
       <c r="E24">
         <v>1587.790712838533</v>
@@ -2441,118 +2984,166 @@
       <c r="G24">
         <v>1585.198052630217</v>
       </c>
-      <c r="Q24">
-        <v>0.2565187330288802</v>
-      </c>
-      <c r="R24">
-        <v>0.2684925430629058</v>
-      </c>
-      <c r="S24">
-        <v>0.2557720199534292</v>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>231.62874420477215</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>237.99147890669701</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>229.08409170142704</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>0.12730914979945662</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>0.1324561260239692</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>0.12626707065224321</v>
       </c>
       <c r="Y24">
-        <v>5251527.878872987</v>
+        <v>0.25651873302888017</v>
       </c>
       <c r="Z24">
+        <v>0.26849254306290582</v>
+      </c>
+      <c r="AA24">
+        <v>0.25577201995342919</v>
+      </c>
+      <c r="AG24">
+        <v>5251527.8788729869</v>
+      </c>
+      <c r="AH24">
         <v>5185043.725689942</v>
       </c>
-      <c r="AA24">
-        <v>5237247.143060721</v>
-      </c>
-      <c r="AC24">
-        <v>1347115.277954341</v>
-      </c>
-      <c r="AD24">
-        <v>1392145.575802856</v>
-      </c>
-      <c r="AE24">
-        <v>1339541.280775967</v>
-      </c>
-      <c r="BJ24">
+      <c r="AI24">
+        <v>5237247.1430607215</v>
+      </c>
+      <c r="AK24">
+        <v>1347115.2779543409</v>
+      </c>
+      <c r="AL24">
+        <v>1392145.5758028559</v>
+      </c>
+      <c r="AM24">
+        <v>1339541.2807759671</v>
+      </c>
+      <c r="BR24">
         <v>1491600</v>
       </c>
-      <c r="BK24">
-        <v>0</v>
-      </c>
-      <c r="BL24">
-        <v>0</v>
-      </c>
-      <c r="BN24">
+      <c r="BS24">
+        <v>0</v>
+      </c>
+      <c r="BT24">
+        <v>0</v>
+      </c>
+      <c r="BV24">
         <v>2146789.373311074</v>
       </c>
-      <c r="BO24">
+      <c r="BW24">
         <v>2080305.220128037</v>
       </c>
-      <c r="BP24">
-        <v>2132508.637498806</v>
+      <c r="BX24">
+        <v>2132508.6374988062</v>
       </c>
     </row>
-    <row r="25" spans="1:68">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>1339.412431707976</v>
+        <v>1339.4124317079761</v>
       </c>
       <c r="B25">
-        <v>1332.423583488497</v>
+        <v>1332.4235834884969</v>
       </c>
       <c r="C25">
-        <v>1337.701661773313</v>
+        <v>1337.7016617733129</v>
       </c>
       <c r="E25">
         <v>1132.029794429598</v>
       </c>
       <c r="F25">
-        <v>1110.895716020404</v>
+        <v>1110.8957160204041</v>
       </c>
       <c r="G25">
-        <v>1128.032446961675</v>
-      </c>
-      <c r="Q25">
-        <v>0.3187240753267921</v>
-      </c>
-      <c r="R25">
-        <v>0.3474034911671464</v>
-      </c>
-      <c r="S25">
-        <v>0.3271448556257757</v>
+        <v>1128.0324469616751</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>207.38263727837807</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>221.52786746809284</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>209.66921481163786</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>0.15483105305654835</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>0.16625934140860643</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>0.15673839750912144</v>
       </c>
       <c r="Y25">
-        <v>4028209.309271949</v>
+        <v>0.31872407532679209</v>
       </c>
       <c r="Z25">
-        <v>4006047.924877601</v>
+        <v>0.34740349116714642</v>
       </c>
       <c r="AA25">
-        <v>4023449.064001194</v>
-      </c>
-      <c r="AC25">
-        <v>1283887.287320478</v>
-      </c>
-      <c r="AD25">
-        <v>1391715.034885381</v>
-      </c>
-      <c r="AE25">
-        <v>1316250.663160333</v>
-      </c>
-      <c r="BJ25">
+        <v>0.32714485562577572</v>
+      </c>
+      <c r="AG25">
+        <v>4028209.3092719489</v>
+      </c>
+      <c r="AH25">
+        <v>4006047.9248776012</v>
+      </c>
+      <c r="AI25">
+        <v>4023449.0640011942</v>
+      </c>
+      <c r="AK25">
+        <v>1283887.2873204779</v>
+      </c>
+      <c r="AL25">
+        <v>1391715.0348853811</v>
+      </c>
+      <c r="AM25">
+        <v>1316250.6631603329</v>
+      </c>
+      <c r="BR25">
         <v>2030250</v>
       </c>
-      <c r="BK25">
-        <v>0</v>
-      </c>
-      <c r="BL25">
-        <v>0</v>
-      </c>
-      <c r="BN25">
-        <v>715596.4577703751</v>
-      </c>
-      <c r="BO25">
-        <v>693435.0733760197</v>
-      </c>
-      <c r="BP25">
-        <v>710836.2124996179</v>
+      <c r="BS25">
+        <v>0</v>
+      </c>
+      <c r="BT25">
+        <v>0</v>
+      </c>
+      <c r="BV25">
+        <v>715596.45777037507</v>
+      </c>
+      <c r="BW25">
+        <v>693435.07337601972</v>
+      </c>
+      <c r="BX25">
+        <v>710836.21249961795</v>
       </c>
     </row>
-    <row r="26" spans="1:68">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1496.553743186746</v>
       </c>
@@ -2563,58 +3154,126 @@
         <v>1492.466558288301</v>
       </c>
       <c r="E26">
-        <v>1286.276944879044</v>
+        <v>1286.2769448790441</v>
       </c>
       <c r="F26">
-        <v>1262.594020325627</v>
+        <v>1262.5940203256271</v>
       </c>
       <c r="G26">
         <v>1286.20037864085</v>
       </c>
-      <c r="Q26">
-        <v>0.2869361279792988</v>
-      </c>
-      <c r="R26">
-        <v>0.3025025193948653</v>
-      </c>
-      <c r="S26">
-        <v>0.28507348470764</v>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>210.27679830770194</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>217.26272911496494</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>206.26617964745105</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>0.14050734847646748</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>0.14681335149303709</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>0.13820489209755979</v>
       </c>
       <c r="Y26">
-        <v>4548327.068293204</v>
+        <v>0.28693612797929879</v>
       </c>
       <c r="Z26">
-        <v>4495381.506303795</v>
+        <v>0.30250251939486528</v>
       </c>
       <c r="AA26">
-        <v>4536954.409591799</v>
-      </c>
-      <c r="AC26">
+        <v>0.28507348470763999</v>
+      </c>
+      <c r="AG26">
+        <v>4548327.0682932036</v>
+      </c>
+      <c r="AH26">
+        <v>4495381.5063037947</v>
+      </c>
+      <c r="AI26">
+        <v>4536954.4095917987</v>
+      </c>
+      <c r="AK26">
         <v>1305079.357759488</v>
       </c>
-      <c r="AD26">
-        <v>1359864.231297982</v>
-      </c>
-      <c r="AE26">
+      <c r="AL26">
+        <v>1359864.2312979819</v>
+      </c>
+      <c r="AM26">
         <v>1293365.403502028</v>
       </c>
-      <c r="BJ26">
+      <c r="BR26">
         <v>1513050</v>
       </c>
-      <c r="BK26">
-        <v>0</v>
-      </c>
-      <c r="BL26">
-        <v>0</v>
-      </c>
-      <c r="BN26">
-        <v>1709624.99183685</v>
-      </c>
-      <c r="BO26">
-        <v>1656679.429847451</v>
-      </c>
-      <c r="BP26">
-        <v>1698252.333135448</v>
+      <c r="BS26">
+        <v>0</v>
+      </c>
+      <c r="BT26">
+        <v>0</v>
+      </c>
+      <c r="BV26">
+        <v>1709624.9918368501</v>
+      </c>
+      <c r="BW26">
+        <v>1656679.4298474509</v>
+      </c>
+      <c r="BX26">
+        <v>1698252.3331354479</v>
+      </c>
+    </row>
+    <row r="30" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <f>AVERAGE(I3:I26)</f>
+        <v>222.6325339433281</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30:O30" si="8">AVERAGE(J3:J26)</f>
+        <v>230.14111544885364</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="8"/>
+        <v>220.3045399634872</v>
+      </c>
+      <c r="L30" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="8"/>
+        <v>0.13620989671315745</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="8"/>
+        <v>0.14230731191978316</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="8"/>
+        <v>0.13526625019251962</v>
+      </c>
+      <c r="Y30">
+        <f>AVERAGE(Y3:AA26)</f>
+        <v>0.27509304748009805</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f>AVERAGE(I30:K30)</f>
+        <v>224.35939645188964</v>
+      </c>
+      <c r="M34">
+        <f>AVERAGE(M30:O30)</f>
+        <v>0.13792781960848674</v>
       </c>
     </row>
   </sheetData>
